--- a/Question_Sets/Role-specific skills/UXUI Design.xlsx
+++ b/Question_Sets/Role-specific skills/UXUI Design.xlsx
@@ -16,23 +16,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You are a UX designer for an e-commerce app. You need to create a user flow diagram for the checkout process to ensure it's as intuitive and streamlined as possible.What should you prioritize focusing on while creating this diagram?", 'ques_type': 15, 'options': ["Aligning your design with the marketing team's preferences.", 'Identifying and including all crucial steps in the checkout process.', 'Making design decisions and changes at a lower fidelity before investing substantial time.', 'Determining the total number of features your app should have.', 'Comparing your design to the user flow and checkout process of competitor apps.'], 'score': ['Identifying and including all crucial steps in the checkout process.', 'Making design decisions and changes at a lower fidelity before investing substantial time.']}, {'title': 'You work for a company that matches users with products to sample. When users reach the screen below, they hesitate and are unsure of what to do next. To move forward, they must pick a product to sample. What is one thing you can change to improve the design and help clarify what users should do?', 'ques_type': 2, 'options': ['Add instructions at the top telling the user to select a sample.', 'Add a call to action on each card displayed.', 'Use radio buttons instead of cards.', 'Remove the Continue button so users can only click on a card.'], 'score': 'Add a call to action on each card displayed.'}, {'title': "You are a UX designer for a popular mobile app. The app's developers have created a new feature that displays a list of items, which is shown in the video below.Which adjustment should you propose to make the list's appearance smoother and guide the user's eyes down the list?", 'ques_type': 2, 'options': ['Add an arrow at the bottom to indicate there is more.', 'Delay showing the next item in the list.', 'Show the list as quickly as possible.', 'Move the list up from the bottom of the screen.'], 'score': 'Delay showing the next item in the list.'}, {'title': 'You are a product manager responsible for developing an event-sharing app. A user story has been presented: "As a user, I want to be able to log in with Facebook so that I can share events with my friends and access my profile on all my devices."What is your assessment of this user story?', 'ques_type': 2, 'options': ['The story is acceptable as it identifies the user, task, and goal.', 'The story is too broad and should be divided into smaller, more specific stories.', 'The story should specify what types of devices the user will use.', 'The story should describe the goals in more detail.'], 'score': 'The story is too broad and should be divided into smaller, more specific stories.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a UX designer for an e-commerce app. You need to create a user flow diagram for the checkout process to ensure it's as intuitive and streamlined as possible.What should you prioritize focusing on while creating this diagram?",
+        "ques_type": 15,
+        "options": [
+            "Aligning your design with the marketing team's preferences.",
+            "Identifying and including all crucial steps in the checkout process.",
+            "Making design decisions and changes at a lower fidelity before investing substantial time.",
+            "Determining the total number of features your app should have.",
+            "Comparing your design to the user flow and checkout process of competitor apps."
+        ],
+        "score": [
+            "Identifying and including all crucial steps in the checkout process.",
+            "Making design decisions and changes at a lower fidelity before investing substantial time."
+        ]
+    },
+    {
+        "title": "You work for a company that matches users with products to sample. When users reach the screen below, they hesitate and are unsure of what to do next. To move forward, they must pick a product to sample. What is one thing you can change to improve the design and help clarify what users should do?",
+        "ques_type": 2,
+        "options": [
+            "Add instructions at the top telling the user to select a sample.",
+            "Add a call to action on each card displayed.",
+            "Use radio buttons instead of cards.",
+            "Remove the Continue button so users can only click on a card."
+        ],
+        "score": "Add a call to action on each card displayed."
+    },
+    {
+        "title": "You are a UX designer for a popular mobile app. The app's developers have created a new feature that displays a list of items, which is shown in the video below.Which adjustment should you propose to make the list's appearance smoother and guide the user's eyes down the list?",
+        "ques_type": 2,
+        "options": [
+            "Add an arrow at the bottom to indicate there is more.",
+            "Delay showing the next item in the list.",
+            "Show the list as quickly as possible.",
+            "Move the list up from the bottom of the screen."
+        ],
+        "score": "Delay showing the next item in the list."
+    },
+    {
+        "title": "You are a product manager responsible for developing an event-sharing app. A user story has been presented: \"As a user, I want to be able to log in with Facebook so that I can share events with my friends and access my profile on all my devices.\"What is your assessment of this user story?",
+        "ques_type": 2,
+        "options": [
+            "The story is acceptable as it identifies the user, task, and goal.",
+            "The story is too broad and should be divided into smaller, more specific stories.",
+            "The story should specify what types of devices the user will use.",
+            "The story should describe the goals in more detail."
+        ],
+        "score": "The story is too broad and should be divided into smaller, more specific stories."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +97,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
